--- a/biology/Zoologie/Carpilius_maculatus/Carpilius_maculatus.xlsx
+++ b/biology/Zoologie/Carpilius_maculatus/Carpilius_maculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Crabe à taches rouges (Carpilius maculatus) est une espèce de crabe de la famille des Carpiliidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Facilement reconnaissable par sa coloration, le crabe à taches rouges est lent et doté de pinces énormes, il est actif la nuit, et se nourrit de coraux, gastéropodes et autres petits animaux marins et invertébrés.
-Il mesure de 4,5 à 9 cm[1].
+Il mesure de 4,5 à 9 cm.
 Il possède une carapace d'un brun clair, parfois virant vers le blanc ou l'orangé, ainsi que deux taches taches rouges symétriques à côté de chaque œil, trois taches rouges sur le milieu et deux ou trois sur l'arrière de la carapace. Il possède entre les yeux quatre excroissance arrondies, propres à l'espèce.
-Sa chaire est réputée toxique, bien qu'elle soit consommée en Polynésie[2].
+Sa chaire est réputée toxique, bien qu'elle soit consommée en Polynésie.
 			Crabe à taches rouges de nuit à La Réunion.
 			Carpilius maculatus
 </t>
@@ -547,7 +561,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans l'océan Indien et dans le Pacifique ouest, des rivages jusqu'à 10 mètres de profondeur, sur les récifs côtiers.
 </t>
